--- a/cirrus_details_list.xlsx
+++ b/cirrus_details_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MIKAN-0510kai/Documents/GitHub/citrus_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B615F2E-8B9C-2540-8411-05CD675D1E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE58436C-CD10-E244-85B8-92E630FF9AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17260" xr2:uid="{17CFEB97-29D2-DF4C-B65C-536D70A99CCD}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16880" xr2:uid="{17CFEB97-29D2-DF4C-B65C-536D70A99CCD}"/>
   </bookViews>
   <sheets>
     <sheet name="説明と画像" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <si>
     <t>Item_ID</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>はれひめ</t>
-  </si>
-  <si>
-    <t>麗江</t>
   </si>
   <si>
     <t>橘</t>
@@ -1039,6 +1036,203 @@
     </rPh>
     <rPh sb="33" eb="36">
       <t>フシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_1.JPG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_2.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_3.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_4.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_5.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_6.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_7.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_8.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_9.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_10.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_11.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_12.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_13.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_14.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_15.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_16.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_17.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_18.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_19.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_20.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_21.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_22.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_23.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_24.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_25.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_26.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_27.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_28.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_29.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_30.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_31.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_32.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_33.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_34.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_35.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_36.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_37.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_38.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_39.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_40.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_41.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_42.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_43.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_44.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_45.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_46.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_47.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_48.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_49.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_50.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_51.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_52.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_53.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_54.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_55.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_56.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_57.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_58.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_59.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_60.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_61.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_62.JPG</t>
+  </si>
+  <si>
+    <t>../citrus_images/citrus_63.JPG</t>
+  </si>
+  <si>
+    <t>麗紅</t>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">ベニ </t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1138,13 +1332,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1483,15 +1677,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F59F471-3BBF-BF4C-A807-95D34CBECD0F}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="90" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="45.42578125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1502,10 +1696,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1515,6 +1709,9 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
@@ -1523,6 +1720,9 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
@@ -1531,6 +1731,9 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
@@ -1539,8 +1742,11 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="C5" t="s">
+        <v>93</v>
+      </c>
       <c r="D5" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1550,6 +1756,9 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
@@ -1558,8 +1767,11 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
       <c r="D7" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1569,6 +1781,9 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
@@ -1577,6 +1792,9 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
@@ -1585,6 +1803,9 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
@@ -1593,6 +1814,9 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
+      <c r="C11" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
@@ -1601,6 +1825,9 @@
       <c r="B12" t="s">
         <v>12</v>
       </c>
+      <c r="C12" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
@@ -1609,6 +1836,9 @@
       <c r="B13" t="s">
         <v>13</v>
       </c>
+      <c r="C13" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
@@ -1617,6 +1847,9 @@
       <c r="B14" t="s">
         <v>14</v>
       </c>
+      <c r="C14" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
@@ -1625,6 +1858,9 @@
       <c r="B15" t="s">
         <v>15</v>
       </c>
+      <c r="C15" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
@@ -1633,6 +1869,9 @@
       <c r="B16" t="s">
         <v>16</v>
       </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
@@ -1641,8 +1880,11 @@
       <c r="B17" t="s">
         <v>17</v>
       </c>
+      <c r="C17" t="s">
+        <v>105</v>
+      </c>
       <c r="D17" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1652,6 +1894,9 @@
       <c r="B18" t="s">
         <v>18</v>
       </c>
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
@@ -1660,8 +1905,11 @@
       <c r="B19" t="s">
         <v>19</v>
       </c>
+      <c r="C19" t="s">
+        <v>107</v>
+      </c>
       <c r="D19" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1671,6 +1919,9 @@
       <c r="B20" t="s">
         <v>20</v>
       </c>
+      <c r="C20" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
@@ -1679,6 +1930,9 @@
       <c r="B21" t="s">
         <v>21</v>
       </c>
+      <c r="C21" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
@@ -1687,6 +1941,9 @@
       <c r="B22" t="s">
         <v>22</v>
       </c>
+      <c r="C22" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
@@ -1695,6 +1952,9 @@
       <c r="B23" t="s">
         <v>23</v>
       </c>
+      <c r="C23" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
@@ -1703,6 +1963,9 @@
       <c r="B24" t="s">
         <v>24</v>
       </c>
+      <c r="C24" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
@@ -1711,6 +1974,9 @@
       <c r="B25" t="s">
         <v>25</v>
       </c>
+      <c r="C25" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
@@ -1719,6 +1985,9 @@
       <c r="B26" t="s">
         <v>26</v>
       </c>
+      <c r="C26" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
@@ -1727,6 +1996,9 @@
       <c r="B27" t="s">
         <v>27</v>
       </c>
+      <c r="C27" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
@@ -1735,8 +2007,11 @@
       <c r="B28" t="s">
         <v>28</v>
       </c>
+      <c r="C28" t="s">
+        <v>116</v>
+      </c>
       <c r="D28" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1746,6 +2021,9 @@
       <c r="B29" t="s">
         <v>29</v>
       </c>
+      <c r="C29" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
@@ -1754,6 +2032,9 @@
       <c r="B30" t="s">
         <v>30</v>
       </c>
+      <c r="C30" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
@@ -1762,6 +2043,9 @@
       <c r="B31" t="s">
         <v>31</v>
       </c>
+      <c r="C31" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
@@ -1770,6 +2054,9 @@
       <c r="B32" t="s">
         <v>32</v>
       </c>
+      <c r="C32" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
@@ -1778,13 +2065,19 @@
       <c r="B33" t="s">
         <v>33</v>
       </c>
+      <c r="C33" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>153</v>
+      </c>
+      <c r="C34" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1792,7 +2085,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1800,10 +2096,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>124</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1811,7 +2110,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1819,10 +2121,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>126</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1830,7 +2135,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1838,7 +2146,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1846,10 +2157,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>129</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1857,7 +2171,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1865,7 +2182,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1873,7 +2193,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1881,7 +2204,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1889,10 +2215,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>134</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1900,10 +2229,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>135</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1911,10 +2243,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>136</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1922,10 +2257,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>137</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1933,10 +2271,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>138</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1944,10 +2285,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>139</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1955,10 +2299,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>140</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1966,10 +2313,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>141</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1977,7 +2327,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1985,10 +2338,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
+        <v>143</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1996,7 +2352,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2004,7 +2363,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="C57" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2012,7 +2374,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="C58" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2020,7 +2385,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="C59" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2028,7 +2396,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2036,7 +2407,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="C61" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2044,7 +2418,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="C62" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2052,7 +2429,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="C63" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2060,7 +2440,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="C64" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2084,10 +2467,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="63">
@@ -2095,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="63">
@@ -2103,7 +2486,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="84">
@@ -2111,7 +2494,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="84">
@@ -2119,7 +2502,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="84">
@@ -2127,7 +2510,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/cirrus_details_list.xlsx
+++ b/cirrus_details_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MIKAN-0510kai/Documents/GitHub/citrus_app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9799febdefbe51c6/ドキュメント/GitHub/citrus_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE58436C-CD10-E244-85B8-92E630FF9AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{FE58436C-CD10-E244-85B8-92E630FF9AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB12FFC6-E4F0-4964-A26B-C782F2624830}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16880" xr2:uid="{17CFEB97-29D2-DF4C-B65C-536D70A99CCD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{17CFEB97-29D2-DF4C-B65C-536D70A99CCD}"/>
   </bookViews>
   <sheets>
     <sheet name="説明と画像" sheetId="1" r:id="rId1"/>
@@ -21,17 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -487,20 +476,6 @@
     </rPh>
     <rPh sb="68" eb="70">
       <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>画像パス</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>説明</t>
-    <rPh sb="0" eb="2">
-      <t>セツメイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1234,6 +1209,14 @@
     <rPh sb="1" eb="2">
       <t xml:space="preserve">ベニ </t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Image_key</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Description</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1678,14 +1661,14 @@
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="20"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="45.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.69140625" customWidth="1"/>
+    <col min="3" max="3" width="25.69140625" customWidth="1"/>
+    <col min="4" max="4" width="45.3828125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1696,10 +1679,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>72</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1710,7 +1693,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1721,7 +1704,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1732,7 +1715,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1743,10 +1726,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1757,7 +1740,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1768,10 +1751,10 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1782,7 +1765,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1793,7 +1776,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1804,7 +1787,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1815,7 +1798,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1826,7 +1809,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1837,7 +1820,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1848,7 +1831,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1859,7 +1842,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1870,7 +1853,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1881,10 +1864,10 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1895,7 +1878,7 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1906,10 +1889,10 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1920,7 +1903,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1931,7 +1914,7 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1942,7 +1925,7 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1953,7 +1936,7 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1964,7 +1947,7 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1975,7 +1958,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1986,7 +1969,7 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1997,7 +1980,7 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2008,10 +1991,10 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2022,7 +2005,7 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2033,7 +2016,7 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2044,7 +2027,7 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2055,7 +2038,7 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2066,7 +2049,7 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2074,10 +2057,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2088,7 +2071,7 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2099,10 +2082,10 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2113,7 +2096,7 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2124,10 +2107,10 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2138,7 +2121,7 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2149,7 +2132,7 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2160,10 +2143,10 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2174,7 +2157,7 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2185,7 +2168,7 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2196,7 +2179,7 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2207,7 +2190,7 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2218,10 +2201,10 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2232,10 +2215,10 @@
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2246,10 +2229,10 @@
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2260,10 +2243,10 @@
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2274,10 +2257,10 @@
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2288,10 +2271,10 @@
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2302,10 +2285,10 @@
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2316,10 +2299,10 @@
         <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2330,7 +2313,7 @@
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2341,10 +2324,10 @@
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2355,7 +2338,7 @@
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2366,7 +2349,7 @@
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2377,7 +2360,7 @@
         <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2388,7 +2371,7 @@
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2399,7 +2382,7 @@
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2410,7 +2393,7 @@
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2421,7 +2404,7 @@
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2432,7 +2415,7 @@
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2443,7 +2426,7 @@
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2460,9 +2443,9 @@
       <selection activeCell="B6" sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="20"/>
   <cols>
-    <col min="2" max="2" width="44.7109375" customWidth="1"/>
+    <col min="2" max="2" width="44.69140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2473,7 +2456,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="63">
+    <row r="2" spans="1:2" ht="60">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2481,7 +2464,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="63">
+    <row r="3" spans="1:2" ht="80">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2489,7 +2472,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="84">
+    <row r="4" spans="1:2" ht="80">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2497,7 +2480,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="84">
+    <row r="5" spans="1:2" ht="80">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2505,7 +2488,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="84">
+    <row r="6" spans="1:2" ht="80">
       <c r="A6">
         <v>5</v>
       </c>
